--- a/test_run/target_enrollment_1.xlsx
+++ b/test_run/target_enrollment_1.xlsx
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
